--- a/media/planilhas/Planilha de Tumulos.xlsx
+++ b/media/planilhas/Planilha de Tumulos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rogerio\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rogerio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FF7A47-E73E-41AB-A57B-63B68C87CE26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAB53D5-E764-4B65-860E-9BA7683CD4B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>tipo_estrutura</t>
   </si>
@@ -43,22 +43,28 @@
     <t>Túmulo</t>
   </si>
   <si>
-    <t>TU-01.A.2-D</t>
-  </si>
-  <si>
-    <t>TU-02.B.3-D</t>
-  </si>
-  <si>
     <t>Sim</t>
   </si>
   <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>Quadra 1</t>
-  </si>
-  <si>
-    <t>Quadra 2</t>
+    <t>angulo</t>
+  </si>
+  <si>
+    <t>comprimento_m</t>
+  </si>
+  <si>
+    <t>largura_m</t>
+  </si>
+  <si>
+    <t>coordenada</t>
+  </si>
+  <si>
+    <t>Q-Maringa</t>
+  </si>
+  <si>
+    <t>T 33</t>
+  </si>
+  <si>
+    <t>-23.438513442092653, -51.928444511918755</t>
   </si>
 </sst>
 </file>
@@ -117,10 +123,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,9 +486,13 @@
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,45 +511,53 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>350</v>
+      </c>
+      <c r="H2">
+        <v>2.5</v>
+      </c>
+      <c r="I2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>